--- a/script_master_data_beltran/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7FA42A-8201-41DD-AEE9-2C1D147760EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55512795-EE34-4700-AB4F-2F7566DBC016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1969,33 +1969,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2010,6 +1983,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2028,6 +2010,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20448,7 +20448,7 @@
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
@@ -30670,17 +30670,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
     </row>
     <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="169" t="s">
+      <c r="J5" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="170"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="3:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="30" t="s">
@@ -30715,152 +30715,152 @@
       </c>
     </row>
     <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="164"/>
+      <c r="H7" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="172"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
     </row>
     <row r="9" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="172"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="172"/>
-      <c r="D10" s="165" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165" t="s">
+      <c r="G10" s="164"/>
+      <c r="H10" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="172"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="172"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="172"/>
-      <c r="D13" s="176" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="165" t="s">
+      <c r="G13" s="176"/>
+      <c r="H13" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="172"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="172"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="172"/>
-      <c r="D16" s="162" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="159" t="s">
+      <c r="G16" s="176"/>
+      <c r="H16" s="173" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="19"/>
@@ -30869,19 +30869,19 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="172"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="161"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="172"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -30893,7 +30893,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="172"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -30906,6 +30906,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C7:C19"/>
@@ -30922,21 +30937,6 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35965,6 +35965,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -36165,30 +36188,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36207,24 +36225,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{586dd8ec-1577-4ac3-bcff-9b1b1c87cbbc}" enabled="1" method="Standard" siteId="{a22f907a-53a6-449f-b082-22c03676d7fb}" contentBits="0" removed="0"/>

--- a/script_master_data_beltran/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55512795-EE34-4700-AB4F-2F7566DBC016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53191E44-873A-4D7C-A9C4-C1C4B61B865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1969,6 +1969,33 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1983,15 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2010,24 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20448,10 +20448,10 @@
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
+      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20573,7 +20573,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="130"/>
     </row>
-    <row r="5" spans="2:45" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:45" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -30670,17 +30670,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
     </row>
     <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="161"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="3:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="30" t="s">
@@ -30715,152 +30715,152 @@
       </c>
     </row>
     <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="E7" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164" t="s">
+      <c r="G7" s="165"/>
+      <c r="H7" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="163"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
     </row>
     <row r="9" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="163"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="163"/>
-      <c r="D10" s="164" t="s">
+      <c r="C10" s="172"/>
+      <c r="D10" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="164" t="s">
+      <c r="F10" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164" t="s">
+      <c r="G10" s="165"/>
+      <c r="H10" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="163"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="163"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="163"/>
-      <c r="D13" s="170" t="s">
+      <c r="C13" s="172"/>
+      <c r="D13" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="E13" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="173" t="s">
+      <c r="F13" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="176"/>
-      <c r="H13" s="164" t="s">
+      <c r="G13" s="162"/>
+      <c r="H13" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="163"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="163"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="163"/>
-      <c r="D16" s="176" t="s">
+      <c r="C16" s="172"/>
+      <c r="D16" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="176"/>
-      <c r="H16" s="173" t="s">
+      <c r="G16" s="162"/>
+      <c r="H16" s="159" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="19"/>
@@ -30869,19 +30869,19 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="163"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="175"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="163"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -30893,7 +30893,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="163"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -30906,21 +30906,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C7:C19"/>
@@ -30937,6 +30922,21 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35965,29 +35965,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -36188,25 +36165,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36225,6 +36207,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{586dd8ec-1577-4ac3-bcff-9b1b1c87cbbc}" enabled="1" method="Standard" siteId="{a22f907a-53a6-449f-b082-22c03676d7fb}" contentBits="0" removed="0"/>
